--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Simon Lund).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Simon Lund).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Navn</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>Repitition omkring Vision og Ikke-funktionelle krav</t>
+  </si>
+  <si>
+    <t>Implementer</t>
+  </si>
+  <si>
+    <t>Kodning af GUI</t>
+  </si>
+  <si>
+    <t>SYG</t>
+  </si>
+  <si>
+    <t>Other role</t>
+  </si>
+  <si>
+    <t>Tool Specialist</t>
+  </si>
+  <si>
+    <t>Oprettede executable jar tutorial</t>
+  </si>
+  <si>
+    <t>Oprettede risiko analyse</t>
   </si>
 </sst>
 </file>
@@ -373,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -441,6 +462,51 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>42060</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>42061</v>
+      </c>
+      <c r="B6">
+        <v>3.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>42062</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
